--- a/biology/Zoologie/Albatros_brun/Albatros_brun.xlsx
+++ b/biology/Zoologie/Albatros_brun/Albatros_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoebetria fusca
 L'Albatros brun (Phoebetria fusca) ou Albatros fuligineux à dos sombre, est une espèce d'oiseau de mer de la famille des Diomedeidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet albatros pèse de 1,8 à 3 kg pour une envergure d'environ 203 cm.
 Son plumage est plus foncé que celui de l'Albatros fuligineux à dos clair et ne présente pas de zone pâle sur le dos. Son bec sombre présente une bordure jaune crème sur la mandibule inférieure.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Albatros brun niche à travers l'archipel Tristan da Cunha, îles du Prince-Édouard, Crozet, Kerguelen, Saint-Paul-et-Amsterdam.
 Cet oiseau fréquente plutôt la zone subtropicale.
